--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347018\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347018\Desktop\github\ProjectD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D19E31D3-FE7E-40A3-9FB3-401FCEB83ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA84430-1278-4478-8F3F-1CE541B3A084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EA3380B-5793-4080-99EB-DEE4C2173652}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -432,17 +433,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>主人公画面は普通</t>
+    <t>ステージのイメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人公画面は三人称</t>
     <rPh sb="0" eb="5">
       <t>シュジンコウガメン</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>フツウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージのイメージ</t>
+    <rPh sb="6" eb="9">
+      <t>サンニンショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -591,68 +592,68 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,6 +819,67 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5" descr="Beyond: Two Souls' review: crossing the blurry line between movies and  games - The Verge">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4B1FDA-B91B-4895-B2AB-B7C816D88B0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="676275" y="20812125"/>
+          <a:ext cx="6502400" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1122,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84104FAF-AE4F-4B2A-920D-19463390D52E}">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1139,33 +1201,33 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
@@ -1177,8 +1239,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1192,8 +1254,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1217,8 +1279,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1257,8 +1319,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="7" t="s">
+    <row r="28" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1267,8 +1329,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="8" t="s">
+    <row r="31" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1277,143 +1339,143 @@
         <v>26</v>
       </c>
       <c r="C33" s="19"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="17"/>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="11"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="17"/>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="11"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="11"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="17"/>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="11"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="17"/>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="11"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C40" s="21"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C41" s="15"/>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="11"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B42" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C42" s="15"/>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="15"/>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="11"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="15"/>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="11"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="15"/>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="11"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B46" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C46" s="15"/>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="48" spans="2:5" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="12" t="s">
+      <c r="E46" s="13"/>
+    </row>
+    <row r="48" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="9"/>
+      <c r="C50" s="10"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
@@ -1426,61 +1488,74 @@
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B106" s="9" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="22" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D2:J4"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D2:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E6574-B4CD-49D1-8057-583BBA5C6CCD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347018\Desktop\github\ProjectD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA84430-1278-4478-8F3F-1CE541B3A084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D1D5EC-3085-4D9C-8EF3-6CE9D020F816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EA3380B-5793-4080-99EB-DEE4C2173652}"/>
   </bookViews>
@@ -37,10 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
-    <t>コンセプト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・BEYONDの幽霊とアクション要素をとりだしたゲーム</t>
     <rPh sb="8" eb="10">
       <t>ユウレイ</t>
@@ -55,28 +51,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・地下１０階の研究所から地上を目指して脱出する</t>
-    <rPh sb="1" eb="3">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ケンキュウジョ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>チジョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>メザ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ダッシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・プレイヤーは主人公とスタンドの操作を切り替えながら脱出を目指す</t>
     <rPh sb="7" eb="10">
       <t>シュジンコウ</t>
@@ -443,6 +417,35 @@
     </rPh>
     <rPh sb="6" eb="9">
       <t>サンニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・地下ｎ階の研究所から地上を目指して脱出する</t>
+    <rPh sb="1" eb="3">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ケンキュウジョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ダッシュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -616,43 +619,43 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1186,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84104FAF-AE4F-4B2A-920D-19463390D52E}">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1197,200 +1200,200 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="D2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B31" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B34" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="18" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B35" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B36" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B38" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="12" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="13"/>
+      <c r="E38" s="16"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="8"/>
@@ -1399,130 +1402,117 @@
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B43" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B43" s="14" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B45" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="12" t="s">
+      <c r="C45" s="11"/>
+      <c r="D45" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B44" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B45" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B46" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="13"/>
+      <c r="E46" s="16"/>
     </row>
     <row r="48" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B48" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B50" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="10"/>
+      <c r="B50" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="19"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B69" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
+      <c r="B69" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B106" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D2:J4"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B69:H69"/>
     <mergeCell ref="D46:E46"/>
@@ -1539,6 +1529,19 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D2:J4"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
